--- a/src/components/Pages/Team/alumni_data.xlsx
+++ b/src/components/Pages/Team/alumni_data.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="sir"/>
-    <sheet r:id="rId2" sheetId="2" name="2019"/>
-    <sheet r:id="rId3" sheetId="3" name="2018"/>
+    <sheet r:id="rId2" sheetId="2" name="Team2023"/>
+    <sheet r:id="rId3" sheetId="3" name="Team2024"/>
+    <sheet r:id="rId4" sheetId="4" name="Team2025"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="454">
   <si>
     <t>image</t>
   </si>
@@ -30,10 +31,1339 @@
     <t>linkedin</t>
   </si>
   <si>
+    <t>gmail</t>
+  </si>
+  <si>
+    <t>Pranit Umakant Satpute</t>
+  </si>
+  <si>
+    <t>Volunteer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pranitsatpute29@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gadariya Priya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pgadariya8@gmail.com </t>
+  </si>
+  <si>
+    <t>Om pandey</t>
+  </si>
+  <si>
+    <t>u21ee052@eedsvnit.ac.in</t>
+  </si>
+  <si>
+    <t>Yash Surati</t>
+  </si>
+  <si>
+    <t>u21ce001@ced.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuvraj Malav </t>
+  </si>
+  <si>
+    <t>uvmalav077@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kashish Mittal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kashishmittal028@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucky Goyal </t>
+  </si>
+  <si>
+    <t>goyallucky91@gmail.com</t>
+  </si>
+  <si>
+    <t>Satyam Roy</t>
+  </si>
+  <si>
+    <t>satyamroy256@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payal Bhootra </t>
+  </si>
+  <si>
+    <t>u21ce053@ced.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Shivam agrawal</t>
+  </si>
+  <si>
+    <t>shiv998362@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shubhambhai Solanki </t>
+  </si>
+  <si>
+    <t>ss7490080545@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simran Hirekhan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U21CH008@ched.svnit.ac.in </t>
+  </si>
+  <si>
+    <t>Jahanvi Arora</t>
+  </si>
+  <si>
+    <t>ajahanvi03@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aanchal Vishwakarma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">u21ch018@ched.svnit.ac.in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saumya Jain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">saumyajain183@gmail.com </t>
+  </si>
+  <si>
+    <t>Sahil Kesaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u21ch033@ched.svnit.ac.in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sneha Sharma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U21CH045@ched.svnit.ac.in </t>
+  </si>
+  <si>
+    <t>Yug Pravinchandra Rana</t>
+  </si>
+  <si>
+    <t>yug170503@gmail.com</t>
+  </si>
+  <si>
+    <t>Verma Divyansh Kumar</t>
+  </si>
+  <si>
+    <t>u21ch062@ched.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Kushal Doshi</t>
+  </si>
+  <si>
+    <t>kushaldoshi1203@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nistha </t>
+  </si>
+  <si>
+    <t>u21ch067@ched.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keval Kanpariya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">u21ch075@ched.svnit.ac.in </t>
+  </si>
+  <si>
+    <t>Shivam Pathak</t>
+  </si>
+  <si>
+    <t>u21ch077@ched.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Nahar ishan rajesh</t>
+  </si>
+  <si>
+    <t>naharishan0305@gmail.com</t>
+  </si>
+  <si>
+    <t>Brinsu Baldha</t>
+  </si>
+  <si>
+    <t>brinsubaldha25@gmail.com</t>
+  </si>
+  <si>
+    <t>Aayushi garg</t>
+  </si>
+  <si>
+    <t>u21ch107@ched.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Namrata Kumari</t>
+  </si>
+  <si>
+    <t>u21ch037@ched.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditi Paresh Sadadiwala </t>
+  </si>
+  <si>
+    <t>u21cs003@coed.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Vivek Nadh</t>
+  </si>
+  <si>
+    <t>viveknadh2003@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khushi Ritendrasinh Kher </t>
+  </si>
+  <si>
+    <t>u21cs008@coed.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Amey Amol Patil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ameyamolpatil@gmail.com </t>
+  </si>
+  <si>
+    <t>Bhumi Agrawal</t>
+  </si>
+  <si>
+    <t>u21cs020@coed.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Muskan Vedi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u21cs030@coed.svnit.ac.in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anushka Kundu </t>
+  </si>
+  <si>
+    <t>u21cs041@coed.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Ved Chadderwala</t>
+  </si>
+  <si>
+    <t>ved29022004@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Prajapati </t>
+  </si>
+  <si>
+    <t>martinprajapati3107@gmail.com</t>
+  </si>
+  <si>
+    <t>Radhika Jajoo</t>
+  </si>
+  <si>
+    <t>u21cs056@coed.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surti Vedant Vipulkumar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">u21cs057@coed.svnit.ac.in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shubham Chandak </t>
+  </si>
+  <si>
+    <t>u21cs059@coed.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Param Shah</t>
+  </si>
+  <si>
+    <t>shahparam1903@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priya Kanthariya </t>
+  </si>
+  <si>
+    <t>priyakanthariya12@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Souresh anand </t>
+  </si>
+  <si>
+    <t>anandsouresh@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shivam Jaiswal </t>
+  </si>
+  <si>
+    <t>sj12032002@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archit Sinojiya </t>
+  </si>
+  <si>
+    <t>sinojiyaarchit@gmail.com</t>
+  </si>
+  <si>
+    <t>Harshil Mistry</t>
+  </si>
+  <si>
+    <t>u21ec002@eced.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Varun Modi</t>
+  </si>
+  <si>
+    <t>varunmodi18@gmail.com</t>
+  </si>
+  <si>
+    <t>Jagrit Joshi</t>
+  </si>
+  <si>
+    <t>jagritjoshi20@gmail.com</t>
+  </si>
+  <si>
+    <t>Harshit Sahu</t>
+  </si>
+  <si>
+    <t>harshitsahu2k2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditya Mathuriya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mathuriyaditya002@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Himanshu soni </t>
+  </si>
+  <si>
+    <t>himanshusoni9282@gmail.com</t>
+  </si>
+  <si>
+    <t>Smriti Mishra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u21ec027@eced.svnit.ac.in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shraddha Sidurkar </t>
+  </si>
+  <si>
+    <t>shraddhasidurkar@gmail.com</t>
+  </si>
+  <si>
+    <t>Dev Desai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devdesaiyt@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ronit Mistry </t>
+  </si>
+  <si>
+    <t>ronitmistry08@gmail.com</t>
+  </si>
+  <si>
+    <t>Tej sheth</t>
+  </si>
+  <si>
+    <t>u21ec040@svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Dalsaniya Kush Sanjaybhai</t>
+  </si>
+  <si>
+    <t>u21ec041@eced.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditi Laddha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aditiladdha2002@gmail.com </t>
+  </si>
+  <si>
+    <t>Vandita Rawat</t>
+  </si>
+  <si>
+    <t>U21ec046@eced.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khushi Solanki </t>
+  </si>
+  <si>
+    <t xml:space="preserve">khushisolanki1824@gmail.com </t>
+  </si>
+  <si>
+    <t>Disha Dharmesh Lad</t>
+  </si>
+  <si>
+    <t>disha.lad2003@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinhal Maheshwari </t>
+  </si>
+  <si>
+    <t>jinhalmaheshwari1256@gmail.com</t>
+  </si>
+  <si>
+    <t>Chakshu Gupta</t>
+  </si>
+  <si>
+    <t>u21ec083@eced.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Akshat soni</t>
+  </si>
+  <si>
+    <t>akshatsonibhl99@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrey Shalan </t>
+  </si>
+  <si>
+    <t>u21ec095@eced.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chauhan Anjali Rajesh </t>
+  </si>
+  <si>
+    <t>u21ec096@eced.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parmar kalpeshkumar vajubhai </t>
+  </si>
+  <si>
+    <t>parmarkaran9876@gmail.com</t>
+  </si>
+  <si>
+    <t>Aishwarya Mourya</t>
+  </si>
+  <si>
+    <t>u21ec106@eced.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Yaswanth naidu maradana</t>
+  </si>
+  <si>
+    <t>u21ec110@eced.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Dibyam Jalan</t>
+  </si>
+  <si>
+    <t>dibyam1jalan@gmail.com</t>
+  </si>
+  <si>
+    <t>Kavish Gajjar</t>
+  </si>
+  <si>
+    <t>gajjarkavish10@gmail.com</t>
+  </si>
+  <si>
+    <t>Jadi Aishwarya</t>
+  </si>
+  <si>
+    <t>u21ec124@eced.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Shah Archit Tejas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">architshah612@gmail.com </t>
+  </si>
+  <si>
+    <t>Shreeya Dave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shreeyadave776@gmail.com </t>
+  </si>
+  <si>
+    <t>tarun singh</t>
+  </si>
+  <si>
+    <t>U21EC130@eced.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renu Chaudhary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">u21ec131@eced.svnit.ac.in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditya raj </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U21EC132@svnit.ac.in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khush Pandya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">khushpandya705@gmail.com </t>
+  </si>
+  <si>
+    <t>Krupal Chaudhari</t>
+  </si>
+  <si>
+    <t>u21ec146@eced.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Ninad Chaugule</t>
+  </si>
+  <si>
+    <t>ninadchaugule123@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namrata Rathod </t>
+  </si>
+  <si>
+    <t>u21ec154@eced.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Rahul Mavaliya</t>
+  </si>
+  <si>
+    <t>u21ec156@eced.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Anshul Garg</t>
+  </si>
+  <si>
+    <t>anshul2003garg@gmail.com</t>
+  </si>
+  <si>
+    <t>Harshit Pathak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u21ec165@eced.svnit.ac.in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anagha Mathkari </t>
+  </si>
+  <si>
+    <t>u21ec168@eced.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aastha Vinod Basunde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">basundeaastha123@gmail.com </t>
+  </si>
+  <si>
+    <t>Aseem Sugandhi</t>
+  </si>
+  <si>
+    <t>aseemsugandhi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aarushi Singh Nautiyal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">u21ee011@eed.svnit.ac.in </t>
+  </si>
+  <si>
+    <t>Romit Chakraborty</t>
+  </si>
+  <si>
+    <t>romit.chakraborty2002@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divya Thakar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">u21ee024@eed.svnit.ac.in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riya Gupta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">u21ee043@eed.svnit.ac.in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankush Mahendrakumar Mishra </t>
+  </si>
+  <si>
+    <t>mishra.ankush20386@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahul Nautiyal </t>
+  </si>
+  <si>
+    <t>u21ee065@eed.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Arjama Mohanty</t>
+  </si>
+  <si>
+    <t>u21ee076@eed.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Aman Kapuriya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u21ee077@eed.svnit.ac.in </t>
+  </si>
+  <si>
+    <t>Aditi Tapariya</t>
+  </si>
+  <si>
+    <t>U21EE081@eed.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tejavathu Harika </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U21EE083@eed.svnit.ac.in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atoshi Ghosh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">u21me002@med.svnit.ac.in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mistry Divyang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">divyangmistry30@gmail.com </t>
+  </si>
+  <si>
+    <t>Anand Manishbhai movaliya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anandmmovaliya496@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nishank Sudhir </t>
+  </si>
+  <si>
+    <t>nishanksudhir03@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pragnesh Barik </t>
+  </si>
+  <si>
+    <t>barikpragnesh@gmail.com</t>
+  </si>
+  <si>
+    <t>Anushk Joshi</t>
+  </si>
+  <si>
+    <t>u21me029@med.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Vedanshi Pithadia</t>
+  </si>
+  <si>
+    <t>u21me034@med.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yash Jamine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yashjamine2003@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jitaksha Gajjar </t>
+  </si>
+  <si>
+    <t>u21me049@med.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep Khandhedia </t>
+  </si>
+  <si>
+    <t>deepkhandhedia@gmail.com</t>
+  </si>
+  <si>
+    <t>Deep Gemlawala</t>
+  </si>
+  <si>
+    <t>deepgemlawala@gmail.com</t>
+  </si>
+  <si>
+    <t>Karnati Nithya Santhoshini</t>
+  </si>
+  <si>
+    <t>u21me061@med.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Devendra Pratap Singh</t>
+  </si>
+  <si>
+    <t>u21me062@med.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falguni Sanju Likhare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">likharefalguni@gmail.com </t>
+  </si>
+  <si>
+    <t>Priyanshu Bhushan</t>
+  </si>
+  <si>
+    <t>smartguypriyanshu111@gmail.com</t>
+  </si>
+  <si>
+    <t>Sarthak Nigam</t>
+  </si>
+  <si>
+    <t>U21me079@med.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preksha Pandya </t>
+  </si>
+  <si>
+    <t>prekshapandya03@gmail.com</t>
+  </si>
+  <si>
+    <t>Ashok Chotiya</t>
+  </si>
+  <si>
+    <t>2103ashokchotiya@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudhakar Pathak </t>
+  </si>
+  <si>
+    <t xml:space="preserve">u21me150@med.svnit.ac.in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yogesh Kumar </t>
+  </si>
+  <si>
+    <t>u21me159@med.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Pranav Prashant Pimple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pranavpimple28@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soham Parmar </t>
+  </si>
+  <si>
+    <t>parmarsoham566@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurri Naveen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kurrivijaykumar67@gmail.com </t>
+  </si>
+  <si>
+    <t>Devam Vadher</t>
+  </si>
+  <si>
+    <t>vadherdevam@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aarsh Gandhi </t>
+  </si>
+  <si>
+    <t>Aarsh19@icloud.com</t>
+  </si>
+  <si>
+    <t>Shreya Himansu Rana</t>
+  </si>
+  <si>
+    <t>u21me217@med.svnit.ac.in</t>
+  </si>
+  <si>
     <t>github</t>
   </si>
   <si>
-    <t>gmail</t>
+    <t>Aryan Shah</t>
+  </si>
+  <si>
+    <t>aryanshah1702@gmail.com</t>
+  </si>
+  <si>
+    <t>Pranav Munisetty</t>
+  </si>
+  <si>
+    <t>pranavmunisetty@gmail.com</t>
+  </si>
+  <si>
+    <t>Yogeesvar Kalva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yogeesvar15@gmail.com </t>
+  </si>
+  <si>
+    <t>Harsh Gandhi</t>
+  </si>
+  <si>
+    <t>gandhiharsh340@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akansh raghuvanshi </t>
+  </si>
+  <si>
+    <t>Raghuvanshiakansh20@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sai krishna kalavala </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krishnakalavala.76@gmail.com </t>
+  </si>
+  <si>
+    <t>Manupati jashwanth</t>
+  </si>
+  <si>
+    <t>manupatijashwanth@gmail.com</t>
+  </si>
+  <si>
+    <t>Pansuriya Tarang Bharatbhai</t>
+  </si>
+  <si>
+    <t>i20ma005@amhd.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Abhijeet Bansod</t>
+  </si>
+  <si>
+    <t>deanabhijeet@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhanani Jatin Chimanbhai </t>
+  </si>
+  <si>
+    <t>i20ma022@amhd.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandan Saraf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sarafchandan351@gmail.com </t>
+  </si>
+  <si>
+    <t>Anuj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i20ph036@phy.svnit.ac.in </t>
+  </si>
+  <si>
+    <t>Pathan Tamanna Hasib</t>
+  </si>
+  <si>
+    <t>I20ph059@phy.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaidehi khatri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vaidehikhatri123@gmail.com </t>
+  </si>
+  <si>
+    <t>Prachi Hudia</t>
+  </si>
+  <si>
+    <t>u20ch005@ched.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaleshwar Dhar Dubey </t>
+  </si>
+  <si>
+    <t>u20ch007@ched.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeel Solanki </t>
+  </si>
+  <si>
+    <t xml:space="preserve">jeeldharmi2003@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashutosh Srivastava </t>
+  </si>
+  <si>
+    <t xml:space="preserve">srivastava02ashutosh@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krupa vaghamshi </t>
+  </si>
+  <si>
+    <t>u20ch018@ched.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madhuri Sharma </t>
+  </si>
+  <si>
+    <t>madhuri2001sharma@gmail.com</t>
+  </si>
+  <si>
+    <t>Prajapati Jaimin Dineshchandra</t>
+  </si>
+  <si>
+    <t>u20ch026@ched.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenny Kachhadiya </t>
+  </si>
+  <si>
+    <t>kennykachhadia@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prajyot Gedam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U20CH032@ched.svnit.ac.in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhyudaya dadhich </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dadhichabhyudaya@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhyey Bhagat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dhyeyrbhqgat@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parmar Kashyapkumar Kishorbhai </t>
+  </si>
+  <si>
+    <t>Kashyapparmar841@gmail.com</t>
+  </si>
+  <si>
+    <t>Detroja Vivek Shaileshbhai</t>
+  </si>
+  <si>
+    <t>detrojaviveks@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sajal Saxena </t>
+  </si>
+  <si>
+    <t>sajal.saxena159e@gmail.com</t>
+  </si>
+  <si>
+    <t>Jatin Agrawal</t>
+  </si>
+  <si>
+    <t>u20ch058@ched.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Deepanshu Chachan</t>
+  </si>
+  <si>
+    <t>deepanshudcchachan@gmail.com</t>
+  </si>
+  <si>
+    <t>Parag Kulshrestha</t>
+  </si>
+  <si>
+    <t>paragkul03@gmail.com</t>
+  </si>
+  <si>
+    <t>Prashant Paliwal</t>
+  </si>
+  <si>
+    <t>paliwal03prashant08@gmail.com</t>
+  </si>
+  <si>
+    <t>Kiran Kumar Saini</t>
+  </si>
+  <si>
+    <t>U20ch112@ched.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shashwat Gupta </t>
+  </si>
+  <si>
+    <t>u20ch117@ched.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Shivam Jani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u20cs092@coed.svnit.ac.in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anjali Shangond </t>
+  </si>
+  <si>
+    <t xml:space="preserve">anjalishangond9148@gmail.com </t>
+  </si>
+  <si>
+    <t>Gupta Anandkumar Shree Siyaram</t>
+  </si>
+  <si>
+    <t>anandgupta73830@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaitanya Rathod </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U20ec008@eced.svnit.ac.in </t>
+  </si>
+  <si>
+    <t>Dhruvil Shah</t>
+  </si>
+  <si>
+    <t>Dhruvilshahaha@gmail.com</t>
+  </si>
+  <si>
+    <t>Thorrivemula chaithanya pavan</t>
+  </si>
+  <si>
+    <t>tchaithanyapavan2001@gmail.com</t>
+  </si>
+  <si>
+    <t>Sushma Muppaneni</t>
+  </si>
+  <si>
+    <t>u20ec082@eced.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Ghanistha Singhal</t>
+  </si>
+  <si>
+    <t>Ghanishtsinghal@gmail.com</t>
+  </si>
+  <si>
+    <t>Sarth Patel</t>
+  </si>
+  <si>
+    <t>u20ec110@eced.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Manasi Shewale</t>
+  </si>
+  <si>
+    <t>manasishewale9@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singh Saurav </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sauravsinghrajput045@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srushti Modh </t>
+  </si>
+  <si>
+    <t>srishhh540@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medisetty Avinash </t>
+  </si>
+  <si>
+    <t>u20ec141@eced.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yash shah </t>
+  </si>
+  <si>
+    <t>shahyash1102@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajesh Karshanbhai Karathiya </t>
+  </si>
+  <si>
+    <t>rajeshkarathiya1111@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisa Chaudhari </t>
+  </si>
+  <si>
+    <t>u20ee003@eed.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhruva Wankhade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dhruva0803@gmail.com </t>
+  </si>
+  <si>
+    <t>Patel Hanni Bipinbhai</t>
+  </si>
+  <si>
+    <t>hannipatel16@gmail.com</t>
+  </si>
+  <si>
+    <t>Teena Dhoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u20ee025@eed.svnit.ac.in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasupuletivaishnavi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">u20ee040@eed.svnit.ac.in </t>
+  </si>
+  <si>
+    <t>Kriti Jain</t>
+  </si>
+  <si>
+    <t>kritireenajain6@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhijeet Kumar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">u20ee081@eed.svnit.ac.in </t>
+  </si>
+  <si>
+    <t>Muskan kumari</t>
+  </si>
+  <si>
+    <t>muskanrungtaaa@gmail.com</t>
+  </si>
+  <si>
+    <t>Dev Visavadia</t>
+  </si>
+  <si>
+    <t>u20ee108@eed.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satya Prakash Singh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">u20ee110@eed.svnit.ac.in </t>
+  </si>
+  <si>
+    <t>Meet Modi</t>
+  </si>
+  <si>
+    <t>modimeet410@gmail.com</t>
+  </si>
+  <si>
+    <t>Dhruvraj Chudasma</t>
+  </si>
+  <si>
+    <t>dhruvnc07@gmail.com</t>
+  </si>
+  <si>
+    <t>Darshit Desai</t>
+  </si>
+  <si>
+    <t>darshitdesaiknocks@gmail.com</t>
+  </si>
+  <si>
+    <t>Parthvi Patel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parthvi.patel11286@gmail.com </t>
+  </si>
+  <si>
+    <t>Harsh Keshri</t>
+  </si>
+  <si>
+    <t>harshkeshri97@gmail.com</t>
+  </si>
+  <si>
+    <t>Anupam kumar</t>
+  </si>
+  <si>
+    <t>k.anupam5041@gmail.com</t>
+  </si>
+  <si>
+    <t>A.hemanth kumar</t>
+  </si>
+  <si>
+    <t>u20me153@med.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Dhiraj Gohil</t>
+  </si>
+  <si>
+    <t>u20me155@med.svnit.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vardan Mittal </t>
+  </si>
+  <si>
+    <t>u20me176@med.svnit.ac.in</t>
+  </si>
+  <si>
+    <t>Kachana Phanindra Reddy</t>
+  </si>
+  <si>
+    <t>phanindra6311@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanya Sengar</t>
+  </si>
+  <si>
+    <t>sengars.097@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kangana Jethwani </t>
+  </si>
+  <si>
+    <t>kanganajethwani05@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adarsh Kataktalware </t>
+  </si>
+  <si>
+    <t xml:space="preserve">u20me215@med.svnit.ac.in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashok Gehlot </t>
+  </si>
+  <si>
+    <t>ashokgehlot833@gmail.com</t>
+  </si>
+  <si>
+    <t>Komati Reddy Ganesh Reddy</t>
+  </si>
+  <si>
+    <t>kganeshreddy328@gmail.com</t>
+  </si>
+  <si>
+    <t>Hiren Vaghela</t>
+  </si>
+  <si>
+    <t>Nishika Ratnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhinav Singh </t>
+  </si>
+  <si>
+    <t>Ajay</t>
+  </si>
+  <si>
+    <t>Anjali Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arun Nayak </t>
+  </si>
+  <si>
+    <t>Aastha Patel</t>
+  </si>
+  <si>
+    <t>Chanchal Kumar Jaiswal</t>
+  </si>
+  <si>
+    <t>Chinna Babu</t>
+  </si>
+  <si>
+    <t>dharshani yeshamallah</t>
+  </si>
+  <si>
+    <t>dheerendra prajapati</t>
+  </si>
+  <si>
+    <t>Disha Parmar</t>
+  </si>
+  <si>
+    <t>harsh khudania</t>
+  </si>
+  <si>
+    <t>Hemant Singh</t>
+  </si>
+  <si>
+    <t>hiten mangela</t>
+  </si>
+  <si>
+    <t>iqbal khan</t>
+  </si>
+  <si>
+    <t>Jarapala Vamsi</t>
+  </si>
+  <si>
+    <t>Karthik Ramesh</t>
+  </si>
+  <si>
+    <t>kartikeya bhaira</t>
+  </si>
+  <si>
+    <t>Kaushik Sanghani</t>
+  </si>
+  <si>
+    <t>Ketan Bhargava</t>
+  </si>
+  <si>
+    <t>Krina Patel</t>
+  </si>
+  <si>
+    <t>Krithika Balamurugan</t>
+  </si>
+  <si>
+    <t>Kunal Mahajan</t>
+  </si>
+  <si>
+    <t>Mohal Kabra</t>
+  </si>
+  <si>
+    <t>Niranjan Belambe</t>
+  </si>
+  <si>
+    <t>Nisarg Shah</t>
+  </si>
+  <si>
+    <t>nishant kumar</t>
+  </si>
+  <si>
+    <t>nitish chandaka</t>
+  </si>
+  <si>
+    <t>OmGheewala</t>
+  </si>
+  <si>
+    <t>Pansuri Naresh Kumar</t>
+  </si>
+  <si>
+    <t>Prashant Kumar Bariya</t>
+  </si>
+  <si>
+    <t>Ragbhav Khandelwal</t>
+  </si>
+  <si>
+    <t>Rathlavaseja</t>
+  </si>
+  <si>
+    <t>ravi khagad</t>
+  </si>
+  <si>
+    <t>Ravish Kumar</t>
+  </si>
+  <si>
+    <t>Rhythm Maheshwari</t>
+  </si>
+  <si>
+    <t>Ritik Desai</t>
+  </si>
+  <si>
+    <t>Sai prasad</t>
+  </si>
+  <si>
+    <t>Sathwik</t>
+  </si>
+  <si>
+    <t>Satyam Raj</t>
+  </si>
+  <si>
+    <t>Shashank Vemullapali</t>
+  </si>
+  <si>
+    <t>Shrutidhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shubham jain </t>
+  </si>
+  <si>
+    <t>shubh Sirolia</t>
+  </si>
+  <si>
+    <t>Shubham patidar</t>
+  </si>
+  <si>
+    <t>Siddharth Tiwari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toorpati srisailam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vaishnavi bajpai </t>
+  </si>
+  <si>
+    <t>Vikas Kumar</t>
   </si>
   <si>
     <t>Dr. Bade Mukund</t>
@@ -56,7 +1386,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,9 +1395,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -76,16 +1406,33 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFffffff"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -100,25 +1447,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -431,10 +1826,10 @@
   <cols>
     <col min="1" max="1" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -444,35 +1839,35 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
+      <c r="B2" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -485,201 +1880,639 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="43.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="32.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="29.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="15">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="B2" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="15">
       <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="B3" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="15">
       <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B4" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B5" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="B6" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="15">
       <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B7" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="B8" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="15">
       <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B9" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B10" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="1"/>
+      <c r="B15" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="1"/>
+      <c r="B16" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="1"/>
+      <c r="B17" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="1"/>
+      <c r="B18" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="1"/>
+      <c r="B19" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="1"/>
+      <c r="B20" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="1"/>
+      <c r="B21" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="1"/>
+      <c r="B22" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="1"/>
+      <c r="B23" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="1"/>
+      <c r="B24" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="1"/>
+      <c r="B25" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="1"/>
+      <c r="B26" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="1"/>
+      <c r="B27" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="1"/>
+      <c r="B28" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="1"/>
+      <c r="B29" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="1"/>
+      <c r="B30" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="1"/>
+      <c r="B31" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="1"/>
+      <c r="B32" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="1"/>
+      <c r="B33" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="1"/>
+      <c r="B34" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="1"/>
+      <c r="B35" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="A36" s="1"/>
+      <c r="B36" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="1"/>
+      <c r="B37" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="A38" s="1"/>
+      <c r="B38" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="A39" s="1"/>
+      <c r="B39" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+      <c r="A40" s="1"/>
+      <c r="B40" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+      <c r="A41" s="1"/>
+      <c r="B41" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="A42" s="1"/>
+      <c r="B42" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="A43" s="1"/>
+      <c r="B43" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+      <c r="A44" s="1"/>
+      <c r="B44" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+      <c r="A45" s="1"/>
+      <c r="B45" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="1"/>
+      <c r="B46" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+      <c r="A47" s="1"/>
+      <c r="B47" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+      <c r="A48" s="1"/>
+      <c r="B48" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+      <c r="A49" s="1"/>
+      <c r="B49" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+      <c r="A50" s="1"/>
+      <c r="B50" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="15">
+      <c r="A51" s="1"/>
+      <c r="B51" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -691,18 +2524,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="21.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="33.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -712,179 +2545,2692 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="3" t="s">
-        <v>10</v>
+        <v>254</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="3" t="s">
-        <v>10</v>
+        <v>256</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="3" t="s">
-        <v>10</v>
+        <v>258</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="3" t="s">
-        <v>10</v>
+        <v>260</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="3" t="s">
-        <v>10</v>
+        <v>262</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="3" t="s">
-        <v>10</v>
+        <v>264</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="3" t="s">
-        <v>10</v>
+        <v>266</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="1"/>
+      <c r="B26" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="1"/>
+      <c r="B27" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="1"/>
+      <c r="B28" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="1"/>
+      <c r="B29" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="1"/>
+      <c r="B30" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="1"/>
+      <c r="B31" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="1"/>
+      <c r="B32" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="1"/>
+      <c r="B33" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="1"/>
+      <c r="B34" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="1"/>
+      <c r="B35" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="A36" s="1"/>
+      <c r="B36" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="1"/>
+      <c r="B37" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="A38" s="1"/>
+      <c r="B38" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="A39" s="1"/>
+      <c r="B39" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+      <c r="A40" s="1"/>
+      <c r="B40" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+      <c r="A41" s="1"/>
+      <c r="B41" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="A42" s="1"/>
+      <c r="B42" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="A43" s="1"/>
+      <c r="B43" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+      <c r="A44" s="1"/>
+      <c r="B44" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+      <c r="A45" s="1"/>
+      <c r="B45" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="1"/>
+      <c r="B46" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+      <c r="A47" s="1"/>
+      <c r="B47" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+      <c r="A48" s="1"/>
+      <c r="B48" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+      <c r="A49" s="1"/>
+      <c r="B49" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+      <c r="A50" s="1"/>
+      <c r="B50" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+      <c r="A51" s="1"/>
+      <c r="B51" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+      <c r="A52" s="1"/>
+      <c r="B52" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+      <c r="A53" s="1"/>
+      <c r="B53" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+      <c r="A54" s="1"/>
+      <c r="B54" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+      <c r="A55" s="1"/>
+      <c r="B55" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+      <c r="A56" s="1"/>
+      <c r="B56" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+      <c r="A57" s="1"/>
+      <c r="B57" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+      <c r="A58" s="1"/>
+      <c r="B58" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+      <c r="A59" s="1"/>
+      <c r="B59" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+      <c r="A60" s="1"/>
+      <c r="B60" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+      <c r="A61" s="1"/>
+      <c r="B61" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+      <c r="A62" s="1"/>
+      <c r="B62" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+      <c r="A63" s="1"/>
+      <c r="B63" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+      <c r="A64" s="1"/>
+      <c r="B64" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+      <c r="A65" s="1"/>
+      <c r="B65" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+      <c r="A66" s="1"/>
+      <c r="B66" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+      <c r="A67" s="1"/>
+      <c r="B67" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+      <c r="A68" s="1"/>
+      <c r="B68" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+      <c r="A69" s="1"/>
+      <c r="B69" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+      <c r="A70" s="1"/>
+      <c r="B70" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+      <c r="A71" s="1"/>
+      <c r="B71" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+      <c r="A72" s="1"/>
+      <c r="B72" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+      <c r="A73" s="1"/>
+      <c r="B73" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+      <c r="A74" s="1"/>
+      <c r="B74" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+      <c r="A75" s="1"/>
+      <c r="B75" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:E124"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="34.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="30.862142857142857" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="1"/>
+      <c r="B26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="1"/>
+      <c r="B27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+      <c r="A28" s="1"/>
+      <c r="B28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="1"/>
+      <c r="B29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="1"/>
+      <c r="B30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="1"/>
+      <c r="B31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="1"/>
+      <c r="B32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="1"/>
+      <c r="B33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="1"/>
+      <c r="B34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="1"/>
+      <c r="B35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="A36" s="1"/>
+      <c r="B36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="1"/>
+      <c r="B37" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="A38" s="1"/>
+      <c r="B38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="A39" s="1"/>
+      <c r="B39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+      <c r="A40" s="1"/>
+      <c r="B40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+      <c r="A41" s="1"/>
+      <c r="B41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="A42" s="1"/>
+      <c r="B42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="A43" s="1"/>
+      <c r="B43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+      <c r="A44" s="1"/>
+      <c r="B44" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+      <c r="A45" s="1"/>
+      <c r="B45" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="1"/>
+      <c r="B46" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+      <c r="A47" s="1"/>
+      <c r="B47" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+      <c r="A48" s="1"/>
+      <c r="B48" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+      <c r="A49" s="1"/>
+      <c r="B49" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+      <c r="A50" s="1"/>
+      <c r="B50" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+      <c r="A51" s="1"/>
+      <c r="B51" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
+      <c r="A52" s="1"/>
+      <c r="B52" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+      <c r="A53" s="1"/>
+      <c r="B53" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+      <c r="A54" s="1"/>
+      <c r="B54" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+      <c r="A55" s="1"/>
+      <c r="B55" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+      <c r="A56" s="1"/>
+      <c r="B56" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+      <c r="A57" s="1"/>
+      <c r="B57" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+      <c r="A58" s="1"/>
+      <c r="B58" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+      <c r="A59" s="1"/>
+      <c r="B59" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+      <c r="A60" s="1"/>
+      <c r="B60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+      <c r="A61" s="1"/>
+      <c r="B61" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+      <c r="A62" s="1"/>
+      <c r="B62" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+      <c r="A63" s="1"/>
+      <c r="B63" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+      <c r="A64" s="1"/>
+      <c r="B64" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+      <c r="A65" s="1"/>
+      <c r="B65" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+      <c r="A66" s="1"/>
+      <c r="B66" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+      <c r="A67" s="1"/>
+      <c r="B67" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5">
+      <c r="A68" s="1"/>
+      <c r="B68" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5">
+      <c r="A69" s="1"/>
+      <c r="B69" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5">
+      <c r="A70" s="1"/>
+      <c r="B70" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="19.5">
+      <c r="A71" s="1"/>
+      <c r="B71" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="19.5">
+      <c r="A72" s="1"/>
+      <c r="B72" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="19.5">
+      <c r="A73" s="1"/>
+      <c r="B73" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="19.5">
+      <c r="A74" s="1"/>
+      <c r="B74" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="19.5">
+      <c r="A75" s="1"/>
+      <c r="B75" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="19.5">
+      <c r="A76" s="1"/>
+      <c r="B76" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="19.5">
+      <c r="A77" s="1"/>
+      <c r="B77" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5">
+      <c r="A78" s="1"/>
+      <c r="B78" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5">
+      <c r="A79" s="1"/>
+      <c r="B79" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5">
+      <c r="A80" s="1"/>
+      <c r="B80" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5">
+      <c r="A81" s="1"/>
+      <c r="B81" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5">
+      <c r="A82" s="1"/>
+      <c r="B82" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5">
+      <c r="A83" s="1"/>
+      <c r="B83" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5">
+      <c r="A84" s="1"/>
+      <c r="B84" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5">
+      <c r="A85" s="1"/>
+      <c r="B85" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5">
+      <c r="A86" s="1"/>
+      <c r="B86" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5">
+      <c r="A87" s="1"/>
+      <c r="B87" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5">
+      <c r="A88" s="1"/>
+      <c r="B88" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5">
+      <c r="A89" s="1"/>
+      <c r="B89" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5">
+      <c r="A90" s="1"/>
+      <c r="B90" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5">
+      <c r="A91" s="1"/>
+      <c r="B91" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5">
+      <c r="A92" s="1"/>
+      <c r="B92" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
+      <c r="A93" s="1"/>
+      <c r="B93" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5">
+      <c r="A94" s="1"/>
+      <c r="B94" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5">
+      <c r="A95" s="1"/>
+      <c r="B95" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5">
+      <c r="A96" s="1"/>
+      <c r="B96" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5">
+      <c r="A97" s="1"/>
+      <c r="B97" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5">
+      <c r="A98" s="1"/>
+      <c r="B98" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5">
+      <c r="A99" s="1"/>
+      <c r="B99" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="19.5">
+      <c r="A100" s="1"/>
+      <c r="B100" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="19.5">
+      <c r="A101" s="1"/>
+      <c r="B101" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="19.5">
+      <c r="A102" s="1"/>
+      <c r="B102" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="19.5">
+      <c r="A103" s="1"/>
+      <c r="B103" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="1"/>
+      <c r="E103" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="19.5">
+      <c r="A104" s="1"/>
+      <c r="B104" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="E104" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="19.5">
+      <c r="A105" s="1"/>
+      <c r="B105" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="E105" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="19.5">
+      <c r="A106" s="1"/>
+      <c r="B106" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="1"/>
+      <c r="E106" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="19.5">
+      <c r="A107" s="1"/>
+      <c r="B107" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="E107" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="19.5">
+      <c r="A108" s="1"/>
+      <c r="B108" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="E108" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="19.5">
+      <c r="A109" s="1"/>
+      <c r="B109" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="19.5">
+      <c r="A110" s="1"/>
+      <c r="B110" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="E110" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="19.5">
+      <c r="A111" s="1"/>
+      <c r="B111" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="1"/>
+      <c r="E111" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="19.5">
+      <c r="A112" s="1"/>
+      <c r="B112" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="1"/>
+      <c r="E112" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="19.5">
+      <c r="A113" s="1"/>
+      <c r="B113" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="1"/>
+      <c r="E113" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
+      <c r="A114" s="1"/>
+      <c r="B114" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="19.5">
+      <c r="A115" s="1"/>
+      <c r="B115" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="1"/>
+      <c r="E115" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="19.5">
+      <c r="A116" s="1"/>
+      <c r="B116" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="19.5">
+      <c r="A117" s="1"/>
+      <c r="B117" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="1"/>
+      <c r="E117" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="19.5">
+      <c r="A118" s="1"/>
+      <c r="B118" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="1"/>
+      <c r="E118" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="19.5">
+      <c r="A119" s="1"/>
+      <c r="B119" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="19.5">
+      <c r="A120" s="1"/>
+      <c r="B120" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="19.5">
+      <c r="A121" s="1"/>
+      <c r="B121" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="1"/>
+      <c r="E121" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="19.5">
+      <c r="A122" s="1"/>
+      <c r="B122" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="1"/>
+      <c r="E122" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="19.5">
+      <c r="A123" s="1"/>
+      <c r="B123" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="1"/>
+      <c r="E123" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="19.5">
+      <c r="A124" s="1"/>
+      <c r="B124" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="1"/>
+      <c r="E124" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
